--- a/data/created/Salomé_noeud_selected.xlsx
+++ b/data/created/Salomé_noeud_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,81 +482,141 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>21135</v>
+        <v>8919</v>
       </c>
       <c r="B3" t="n">
-        <v>75915</v>
+        <v>10000</v>
       </c>
       <c r="C3" t="n">
-        <v>171329</v>
+        <v>171325</v>
       </c>
       <c r="D3" t="n">
         <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>125353</v>
+        <v>125445</v>
       </c>
       <c r="F3" t="n">
-        <v>125347</v>
+        <v>125537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>27805</v>
+        <v>21135</v>
       </c>
       <c r="B4" t="n">
-        <v>59589</v>
+        <v>75915</v>
       </c>
       <c r="C4" t="n">
-        <v>171272</v>
+        <v>171329</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" t="n">
-        <v>125402</v>
+        <v>125353</v>
       </c>
       <c r="F4" t="n">
-        <v>125332</v>
+        <v>125347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>28181</v>
+        <v>24236</v>
       </c>
       <c r="B5" t="n">
-        <v>63413</v>
+        <v>26472</v>
       </c>
       <c r="C5" t="n">
-        <v>171359</v>
+        <v>171326</v>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E5" t="n">
-        <v>126632</v>
+        <v>125460</v>
       </c>
       <c r="F5" t="n">
-        <v>126637</v>
+        <v>125459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>37224</v>
+        <v>27805</v>
       </c>
       <c r="B6" t="n">
-        <v>44739</v>
+        <v>59589</v>
       </c>
       <c r="C6" t="n">
-        <v>171319</v>
+        <v>171272</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
       </c>
       <c r="E6" t="n">
+        <v>125402</v>
+      </c>
+      <c r="F6" t="n">
+        <v>125332</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>28181</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63413</v>
+      </c>
+      <c r="C7" t="n">
+        <v>171359</v>
+      </c>
+      <c r="D7" t="n">
+        <v>150</v>
+      </c>
+      <c r="E7" t="n">
+        <v>126632</v>
+      </c>
+      <c r="F7" t="n">
+        <v>126637</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>32211</v>
+      </c>
+      <c r="B8" t="n">
+        <v>125361</v>
+      </c>
+      <c r="C8" t="n">
+        <v>171243</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>126490</v>
+      </c>
+      <c r="F8" t="n">
+        <v>126491</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>37224</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44739</v>
+      </c>
+      <c r="C9" t="n">
+        <v>171319</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="n">
         <v>125516</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F9" t="n">
         <v>125515</v>
       </c>
     </row>
